--- a/temp_doc/AUTH.xlsx
+++ b/temp_doc/AUTH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/bank_mini/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2811B8C0-F1CF-864A-B386-0C04B18BD96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB482721-2B38-8F4B-AADC-E003F3E73DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{61286B04-87A1-9641-9A2B-91B56F4101C1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>kepalabankmini</t>
   </si>
@@ -51,13 +51,73 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>PJbankmini*</t>
+  </si>
+  <si>
+    <t>pjbankmini</t>
+  </si>
+  <si>
+    <t>teler1bankmini</t>
+  </si>
+  <si>
+    <t>Teler1bankmini*</t>
+  </si>
+  <si>
+    <t>teler2bankmini</t>
+  </si>
+  <si>
+    <t>Teler2bankmini*</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>Admin123*</t>
+  </si>
+  <si>
+    <t>nama</t>
+  </si>
+  <si>
+    <t>ADMINISTRATOR BANK MINI</t>
+  </si>
+  <si>
+    <t>KEPALA BANK MINI</t>
+  </si>
+  <si>
+    <t>PENANGGUNG JAWAB HARIAN BANK MINI</t>
+  </si>
+  <si>
+    <t>TELER 1 BANK MINI</t>
+  </si>
+  <si>
+    <t>TELER 2 BANK MINI</t>
+  </si>
+  <si>
+    <t>LEVEL</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>kepala</t>
+  </si>
+  <si>
+    <t>pj_harian</t>
+  </si>
+  <si>
+    <t>teller2</t>
+  </si>
+  <si>
+    <t>teller1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -71,6 +131,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -80,27 +146,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -110,7 +161,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,21 +496,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4237B7-38FC-464B-8BB3-8DF3375CD21C}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D4" sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -469,16 +522,96 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/temp_doc/AUTH.xlsx
+++ b/temp_doc/AUTH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/bank_mini/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB482721-2B38-8F4B-AADC-E003F3E73DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F01D047-6F0C-0746-B9F0-55BCA92213BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{61286B04-87A1-9641-9A2B-91B56F4101C1}"/>
   </bookViews>
@@ -146,12 +146,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -161,7 +176,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,7 +514,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:E6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.25"/>

--- a/temp_doc/AUTH.xlsx
+++ b/temp_doc/AUTH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/bank_mini/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F01D047-6F0C-0746-B9F0-55BCA92213BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B634292F-510D-014F-BFC0-F6FEE2D5F087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{61286B04-87A1-9641-9A2B-91B56F4101C1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>kepalabankmini</t>
   </si>
@@ -111,13 +111,25 @@
   </si>
   <si>
     <t>teller1</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>bank.mini@smkth-jakbar.com</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>BankMini123*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,6 +148,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF424242"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -173,10 +191,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4237B7-38FC-464B-8BB3-8DF3375CD21C}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.25"/>
@@ -524,10 +543,12 @@
     <col min="3" max="3" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -543,8 +564,14 @@
       <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -560,8 +587,14 @@
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -578,7 +611,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -595,7 +628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -612,7 +645,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -631,5 +664,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>